--- a/biology/Zoologie/Amy_Castle/Amy_Castle.xlsx
+++ b/biology/Zoologie/Amy_Castle/Amy_Castle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amy Castle, née le 9 mai 1880 à Maori Gully, West Coast (Nouvelle-Zélande) et morte le 23 février 1971, est une entomologiste.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rattachée au New Zealand Museum jusqu'en 1957, elle a commencé sa carrière comme assistante photographique au Dominion Museum puis est transférée au service entomologique sous la direction d'Augustus Hamilton (en)[1].
-À la suite du décès d'Hamilton, en octobre 1913, elle est nommée responsable d'une collection qui compte 6 000 spécimens de lépidoptères dont elle assume la classification jusqu'en 1915. Elle est la première femme à obtenir un poste de scientifique dans l'administration néo-zélandaise[1].
-En 1950 elle découvre le Pasiphila vieta (en) (Chloroclystis vieta), espèce endémique de papillons nocturnes de Nouvelle-Zélande de la famille des Geometridae, sur le mont Taranaki/Egmont (Mount Egmont) à une altitude de 1 066 m[2].
-Jamais mariée, elle reste à Wellington jusqu'en 1957 puis s'expatrie en Angleterre où elle décède le 23 février 1971 à Paignton (Devon) [1].
-L'espèce de poissons Galaxias castleae est nommé en reconnaissance de son travail[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rattachée au New Zealand Museum jusqu'en 1957, elle a commencé sa carrière comme assistante photographique au Dominion Museum puis est transférée au service entomologique sous la direction d'Augustus Hamilton (en).
+À la suite du décès d'Hamilton, en octobre 1913, elle est nommée responsable d'une collection qui compte 6 000 spécimens de lépidoptères dont elle assume la classification jusqu'en 1915. Elle est la première femme à obtenir un poste de scientifique dans l'administration néo-zélandaise.
+En 1950 elle découvre le Pasiphila vieta (en) (Chloroclystis vieta), espèce endémique de papillons nocturnes de Nouvelle-Zélande de la famille des Geometridae, sur le mont Taranaki/Egmont (Mount Egmont) à une altitude de 1 066 m.
+Jamais mariée, elle reste à Wellington jusqu'en 1957 puis s'expatrie en Angleterre où elle décède le 23 février 1971 à Paignton (Devon) .
+L'espèce de poissons Galaxias castleae est nommé en reconnaissance de son travail.
 </t>
         </is>
       </c>
